--- a/src/data/Items.xlsx
+++ b/src/data/Items.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\print-hub\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF5FA1-1C5C-4F55-B891-11120B809075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="a (2)" sheetId="1" r:id="rId1"/>
-    <sheet name="a" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="a (2)"/>
+    <sheet r:id="rId2" sheetId="2" name="a"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">a!$A$1:$K$238</definedName>
     <definedName name="ExternalData_2" localSheetId="0">'a (2)'!$A$1:$J$45</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -1415,20 +1404,27 @@
     <t>types</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>image_exists</t>
+  </si>
+  <si>
     <t>[List]</t>
   </si>
   <si>
-    <t>image_exists</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,16 +1440,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9c0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1465,12 +1466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFffc7ce"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFc6efce"/>
       </patternFill>
     </fill>
   </fills>
@@ -1491,141 +1492,112 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="a__2" displayName="a__2" ref="A1:K45" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:K45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K238" displayName="a" name="a" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:K238"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="category" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="price" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="types" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="short_description" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="long_description" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="weight" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="dimensions" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TRUE" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="image_exists" dataDxfId="1"/>
+    <tableColumn name="id" id="1"/>
+    <tableColumn name="name" id="2"/>
+    <tableColumn name="category" id="3"/>
+    <tableColumn name="price" id="4"/>
+    <tableColumn name="factor" id="5"/>
+    <tableColumn name="value" id="6"/>
+    <tableColumn name="short_description" id="7"/>
+    <tableColumn name="long_description" id="8"/>
+    <tableColumn name="weight" id="9"/>
+    <tableColumn name="dimensions" id="10"/>
+    <tableColumn name="image" id="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="a" displayName="a" ref="A1:K238" totalsRowShown="0">
-  <autoFilter ref="A1:K238" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K45" displayName="a__2" name="a__2" id="2" totalsRowShown="0">
+  <autoFilter ref="A1:K45"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="category"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="price"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="factor"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="value"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="short_description"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="long_description"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="weight"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="dimensions"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="image"/>
+    <tableColumn name="id" id="1"/>
+    <tableColumn name="name" id="2"/>
+    <tableColumn name="category" id="3"/>
+    <tableColumn name="price" id="4"/>
+    <tableColumn name="types" id="5"/>
+    <tableColumn name="short_description" id="6"/>
+    <tableColumn name="long_description" id="7"/>
+    <tableColumn name="weight" id="8"/>
+    <tableColumn name="dimensions" id="9"/>
+    <tableColumn name="TRUE" id="10"/>
+    <tableColumn name="image_exists" id="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -1634,10 +1606,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1675,71 +1647,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1767,7 +1739,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1790,11 +1762,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1803,13 +1775,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1819,7 +1791,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1828,7 +1800,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1837,7 +1809,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1845,10 +1817,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1913,1604 +1885,1602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8">
+        <v>121</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
-        <v>121</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D3" s="8">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>142</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>109</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8">
+        <v>109</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8">
+        <v>109</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8">
+        <v>225</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="8">
+        <v>109</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8">
+        <v>120</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="8">
+        <v>116</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="8">
+        <v>186</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="8">
+        <v>150</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="8">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="8">
+        <v>250</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="8">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="8">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="8">
+        <v>80</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="8">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="8">
+        <v>60</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="8">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="8">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="8">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="8">
+        <v>150</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="8">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="8">
+        <v>120</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="8">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7">
-        <v>142</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7">
-        <v>109</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="E32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="8">
+        <v>180</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="8">
+        <v>50</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="8">
+        <v>200</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="8">
+        <v>300</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="8">
+        <v>350</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="8">
+        <v>120</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="8">
+        <v>90</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="8">
+        <v>120</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" s="8">
+        <v>80</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="8">
+        <v>150</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="8">
         <v>70</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7">
-        <v>109</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7">
-        <v>109</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7">
-        <v>225</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="7">
-        <v>109</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="E43" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D44" s="8">
         <v>120</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7">
-        <v>116</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E44" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="8">
         <v>120</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="7">
-        <v>186</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="7">
-        <v>150</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="7">
-        <v>80</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="7">
-        <v>250</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="7">
-        <v>14</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="7">
-        <v>63</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="7">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="7">
-        <v>80</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="7">
-        <v>40</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="7">
-        <v>50</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K24" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="7">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K25" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="7">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="7">
-        <v>25</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K27" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="7">
-        <v>40</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="7">
-        <v>150</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="E45" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K29" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="7">
-        <v>20</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K30" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="7">
-        <v>120</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="7">
-        <v>25</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K32" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="7">
-        <v>180</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K33" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="7">
-        <v>50</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K34" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="7">
-        <v>200</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D36" s="7">
-        <v>300</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K36" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="7">
-        <v>350</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="K37" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="7">
-        <v>120</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K38" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="7">
-        <v>90</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="K39" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="7">
-        <v>120</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K40" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="7">
-        <v>80</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K41" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D42" s="7">
-        <v>150</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K42" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D43" s="7">
-        <v>70</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="K43" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D44" s="7">
-        <v>120</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I44" s="6" t="s">
+      <c r="I45" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="K44" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D45" s="7">
-        <v>120</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K45" s="9" t="b">
-        <v>1</v>
+      <c r="K45" s="10" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3530,22 +3500,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="67.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="69.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3615,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3650,7 +3620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3716,7 +3686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3747,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3778,7 +3748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3809,7 +3779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3840,7 +3810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3871,7 +3841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3902,7 +3872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -3933,7 +3903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3964,7 +3934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -3999,7 +3969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -4034,7 +4004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -4069,7 +4039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4104,7 +4074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,7 +4109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4174,7 +4144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -4209,7 +4179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -4244,7 +4214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,7 +4249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -4314,7 +4284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -4349,7 +4319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -4384,7 +4354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -4419,7 +4389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4454,7 +4424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -4489,7 +4459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -4524,7 +4494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -4559,7 +4529,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -4594,7 +4564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -4629,7 +4599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -4664,7 +4634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -4699,7 +4669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -4734,7 +4704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -4769,7 +4739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4804,7 +4774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -4839,7 +4809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -4874,7 +4844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -4909,7 +4879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4944,7 +4914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -4979,7 +4949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -5014,7 +4984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -5049,7 +5019,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -5119,7 +5089,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -5154,7 +5124,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -5189,7 +5159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5224,7 +5194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5259,7 +5229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
@@ -5294,7 +5264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -5329,7 +5299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -5364,7 +5334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -5399,7 +5369,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -5434,7 +5404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -5469,7 +5439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -5504,7 +5474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -5539,7 +5509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -5574,7 +5544,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -5609,7 +5579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -5644,7 +5614,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -5679,7 +5649,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -5714,7 +5684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -5749,7 +5719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -5784,7 +5754,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -5819,7 +5789,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -5854,7 +5824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -5889,7 +5859,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
@@ -5924,7 +5894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -5959,7 +5929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>147</v>
       </c>
@@ -5994,7 +5964,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -6029,7 +5999,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -6064,7 +6034,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -6099,7 +6069,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -6134,7 +6104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -6169,7 +6139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
@@ -6204,7 +6174,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -6239,7 +6209,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -6274,7 +6244,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -6309,7 +6279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
@@ -6344,7 +6314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
@@ -6379,7 +6349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -6410,7 +6380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -6441,7 +6411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -6472,7 +6442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
@@ -6503,7 +6473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
         <v>181</v>
       </c>
@@ -6534,7 +6504,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
@@ -6565,7 +6535,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>190</v>
       </c>
@@ -6600,7 +6570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -6635,7 +6605,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>190</v>
       </c>
@@ -6670,7 +6640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
@@ -6705,7 +6675,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
@@ -6740,7 +6710,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -6775,7 +6745,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>201</v>
       </c>
@@ -6810,7 +6780,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
@@ -6845,7 +6815,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
         <v>201</v>
       </c>
@@ -6880,7 +6850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
@@ -6915,7 +6885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -6950,7 +6920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
         <v>201</v>
       </c>
@@ -6985,7 +6955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
         <v>213</v>
       </c>
@@ -7020,7 +6990,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
         <v>213</v>
       </c>
@@ -7053,7 +7023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -7088,7 +7058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -7123,7 +7093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -7158,7 +7128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
         <v>213</v>
       </c>
@@ -7193,7 +7163,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
         <v>223</v>
       </c>
@@ -7228,7 +7198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
         <v>223</v>
       </c>
@@ -7263,7 +7233,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
         <v>223</v>
       </c>
@@ -7298,7 +7268,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -7333,7 +7303,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
         <v>223</v>
       </c>
@@ -7368,7 +7338,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -7403,7 +7373,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
         <v>236</v>
       </c>
@@ -7438,7 +7408,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -7473,7 +7443,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -7508,7 +7478,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
@@ -7543,7 +7513,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
         <v>236</v>
       </c>
@@ -7578,7 +7548,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
         <v>236</v>
       </c>
@@ -7613,7 +7583,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
         <v>246</v>
       </c>
@@ -7648,7 +7618,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
         <v>246</v>
       </c>
@@ -7683,7 +7653,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
@@ -7718,7 +7688,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -7753,7 +7723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
         <v>246</v>
       </c>
@@ -7788,7 +7758,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -7823,7 +7793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
@@ -7858,7 +7828,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
@@ -7893,7 +7863,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
         <v>256</v>
       </c>
@@ -7928,7 +7898,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
         <v>256</v>
       </c>
@@ -7963,7 +7933,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -7998,7 +7968,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
@@ -8033,7 +8003,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -8068,7 +8038,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
         <v>265</v>
       </c>
@@ -8103,7 +8073,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
@@ -8138,7 +8108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -8173,7 +8143,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
@@ -8208,7 +8178,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
         <v>265</v>
       </c>
@@ -8243,7 +8213,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
         <v>275</v>
       </c>
@@ -8278,7 +8248,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
@@ -8313,7 +8283,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -8348,7 +8318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
         <v>275</v>
       </c>
@@ -8383,7 +8353,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
         <v>275</v>
       </c>
@@ -8418,7 +8388,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
         <v>275</v>
       </c>
@@ -8453,7 +8423,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -8488,7 +8458,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
         <v>283</v>
       </c>
@@ -8523,7 +8493,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
         <v>283</v>
       </c>
@@ -8558,7 +8528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
         <v>283</v>
       </c>
@@ -8593,7 +8563,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
@@ -8628,7 +8598,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
         <v>283</v>
       </c>
@@ -8663,7 +8633,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -8698,7 +8668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
         <v>295</v>
       </c>
@@ -8733,7 +8703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
         <v>295</v>
       </c>
@@ -8768,7 +8738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
         <v>295</v>
       </c>
@@ -8803,7 +8773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
         <v>295</v>
       </c>
@@ -8838,7 +8808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
         <v>295</v>
       </c>
@@ -8873,7 +8843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
         <v>304</v>
       </c>
@@ -8908,7 +8878,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
         <v>304</v>
       </c>
@@ -8943,7 +8913,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -8978,7 +8948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
         <v>304</v>
       </c>
@@ -9013,7 +8983,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
         <v>304</v>
       </c>
@@ -9048,7 +9018,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
@@ -9083,7 +9053,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
         <v>314</v>
       </c>
@@ -9118,7 +9088,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
@@ -9153,7 +9123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
         <v>314</v>
       </c>
@@ -9188,7 +9158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
         <v>314</v>
       </c>
@@ -9223,7 +9193,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
         <v>314</v>
       </c>
@@ -9258,7 +9228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
         <v>314</v>
       </c>
@@ -9293,7 +9263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -9328,7 +9298,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
         <v>324</v>
       </c>
@@ -9363,7 +9333,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
         <v>324</v>
       </c>
@@ -9398,7 +9368,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
         <v>324</v>
       </c>
@@ -9433,7 +9403,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
         <v>324</v>
       </c>
@@ -9468,7 +9438,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
         <v>324</v>
       </c>
@@ -9503,7 +9473,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
         <v>336</v>
       </c>
@@ -9538,7 +9508,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
         <v>336</v>
       </c>
@@ -9573,7 +9543,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
         <v>336</v>
       </c>
@@ -9608,7 +9578,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
         <v>336</v>
       </c>
@@ -9643,7 +9613,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
         <v>336</v>
       </c>
@@ -9678,7 +9648,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
         <v>336</v>
       </c>
@@ -9713,7 +9683,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
         <v>347</v>
       </c>
@@ -9748,7 +9718,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
         <v>347</v>
       </c>
@@ -9783,7 +9753,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
         <v>347</v>
       </c>
@@ -9818,7 +9788,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
         <v>347</v>
       </c>
@@ -9853,7 +9823,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
         <v>347</v>
       </c>
@@ -9888,7 +9858,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
         <v>347</v>
       </c>
@@ -9923,7 +9893,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
         <v>358</v>
       </c>
@@ -9958,7 +9928,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
         <v>358</v>
       </c>
@@ -9993,7 +9963,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
         <v>358</v>
       </c>
@@ -10028,7 +9998,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
         <v>370</v>
       </c>
@@ -10063,7 +10033,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
         <v>370</v>
       </c>
@@ -10098,7 +10068,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
         <v>370</v>
       </c>
@@ -10133,7 +10103,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
@@ -10168,7 +10138,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
         <v>379</v>
       </c>
@@ -10203,7 +10173,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
         <v>379</v>
       </c>
@@ -10238,7 +10208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
         <v>379</v>
       </c>
@@ -10273,7 +10243,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
         <v>379</v>
       </c>
@@ -10308,7 +10278,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
         <v>379</v>
       </c>
@@ -10343,7 +10313,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
         <v>389</v>
       </c>
@@ -10378,7 +10348,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
         <v>389</v>
       </c>
@@ -10413,7 +10383,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
         <v>389</v>
       </c>
@@ -10448,7 +10418,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
         <v>389</v>
       </c>
@@ -10483,7 +10453,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
         <v>389</v>
       </c>
@@ -10518,7 +10488,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
         <v>389</v>
       </c>
@@ -10553,7 +10523,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
         <v>400</v>
       </c>
@@ -10588,7 +10558,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
         <v>400</v>
       </c>
@@ -10623,7 +10593,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1" t="s">
         <v>400</v>
       </c>
@@ -10658,7 +10628,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
         <v>400</v>
       </c>
@@ -10693,7 +10663,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1" t="s">
         <v>400</v>
       </c>
@@ -10728,7 +10698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1" t="s">
         <v>400</v>
       </c>
@@ -10763,7 +10733,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1" t="s">
         <v>411</v>
       </c>
@@ -10798,7 +10768,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1" t="s">
         <v>411</v>
       </c>
@@ -10833,7 +10803,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
         <v>411</v>
       </c>
@@ -10868,7 +10838,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
         <v>411</v>
       </c>
@@ -10903,7 +10873,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1" t="s">
         <v>411</v>
       </c>
@@ -10938,7 +10908,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1" t="s">
         <v>411</v>
       </c>
@@ -10973,7 +10943,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1" t="s">
         <v>421</v>
       </c>
@@ -11008,7 +10978,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1" t="s">
         <v>421</v>
       </c>
@@ -11043,7 +11013,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
         <v>421</v>
       </c>
@@ -11078,7 +11048,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
         <v>421</v>
       </c>
@@ -11113,7 +11083,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
         <v>421</v>
       </c>
@@ -11148,7 +11118,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
         <v>421</v>
       </c>
@@ -11183,7 +11153,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
         <v>432</v>
       </c>
@@ -11218,7 +11188,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
         <v>432</v>
       </c>
@@ -11253,7 +11223,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
         <v>432</v>
       </c>
@@ -11288,7 +11258,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
         <v>432</v>
       </c>
@@ -11323,7 +11293,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
@@ -11358,7 +11328,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
         <v>432</v>
       </c>
@@ -11393,7 +11363,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
         <v>442</v>
       </c>
@@ -11428,7 +11398,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
         <v>442</v>
       </c>
@@ -11463,7 +11433,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
         <v>442</v>
       </c>
@@ -11498,7 +11468,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
@@ -11533,7 +11503,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
         <v>442</v>
       </c>
@@ -11568,7 +11538,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
         <v>442</v>
       </c>
@@ -11603,7 +11573,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
         <v>453</v>
       </c>
@@ -11638,7 +11608,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1" t="s">
         <v>453</v>
       </c>
@@ -11673,7 +11643,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1" t="s">
         <v>453</v>
       </c>
@@ -11708,7 +11678,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
         <v>453</v>
       </c>
@@ -11743,7 +11713,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1" t="s">
         <v>453</v>
       </c>
@@ -11778,7 +11748,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
         <v>453</v>
       </c>

--- a/src/data/Items.xlsx
+++ b/src/data/Items.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\print-hub\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500D0DD-E24B-4A2A-ACD1-ECA49CFE66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="a (2)"/>
-    <sheet r:id="rId2" sheetId="2" name="a"/>
+    <sheet name="a (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="a" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">a!$A$1:$K$238</definedName>
     <definedName name="ExternalData_2" localSheetId="0">'a (2)'!$A$1:$J$45</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -1417,13 +1428,21 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Drawing Book</t>
+  </si>
+  <si>
+    <t>Interleaf</t>
+  </si>
+  <si>
+    <t>NoteBook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1446,7 +1465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9c0006"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1466,12 +1485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc7ce"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc6efce"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1492,16 +1511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,94 +1529,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K238" displayName="a" name="a" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:K238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="a__2" displayName="a__2" ref="A1:K45" totalsRowShown="0">
+  <autoFilter ref="A1:K45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn name="id" id="1"/>
-    <tableColumn name="name" id="2"/>
-    <tableColumn name="category" id="3"/>
-    <tableColumn name="price" id="4"/>
-    <tableColumn name="factor" id="5"/>
-    <tableColumn name="value" id="6"/>
-    <tableColumn name="short_description" id="7"/>
-    <tableColumn name="long_description" id="8"/>
-    <tableColumn name="weight" id="9"/>
-    <tableColumn name="dimensions" id="10"/>
-    <tableColumn name="image" id="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="price"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="types"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="short_description"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="long_description"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="weight"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="dimensions"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TRUE"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="image_exists"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K45" displayName="a__2" name="a__2" id="2" totalsRowShown="0">
-  <autoFilter ref="A1:K45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="a" displayName="a" ref="A1:K238" totalsRowShown="0">
+  <autoFilter ref="A1:K238" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn name="id" id="1"/>
-    <tableColumn name="name" id="2"/>
-    <tableColumn name="category" id="3"/>
-    <tableColumn name="price" id="4"/>
-    <tableColumn name="types" id="5"/>
-    <tableColumn name="short_description" id="6"/>
-    <tableColumn name="long_description" id="7"/>
-    <tableColumn name="weight" id="8"/>
-    <tableColumn name="dimensions" id="9"/>
-    <tableColumn name="TRUE" id="10"/>
-    <tableColumn name="image_exists" id="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="price"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="factor"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="value"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="short_description"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="long_description"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="weight"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="dimensions"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="image"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1606,10 +1624,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1647,71 +1665,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1739,7 +1757,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1762,11 +1780,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1775,13 +1793,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1791,7 +1809,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1800,7 +1818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1809,7 +1827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1817,10 +1835,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1885,30 +1903,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="67.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1963,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1974,11 +1994,11 @@
       <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="K2" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2033,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2068,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2083,7 +2103,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
@@ -2147,13 +2167,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>58</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -2182,13 +2202,13 @@
         <v>64</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>71</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>77</v>
       </c>
@@ -2217,13 +2237,13 @@
         <v>64</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>78</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>95</v>
       </c>
@@ -2293,7 +2313,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>106</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
@@ -2363,7 +2383,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>127</v>
       </c>
@@ -2392,13 +2412,13 @@
         <v>132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>128</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>135</v>
       </c>
@@ -2427,13 +2447,13 @@
         <v>142</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>147</v>
       </c>
@@ -2464,16 +2484,16 @@
       <c r="J16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="K16" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>97</v>
@@ -2499,11 +2519,11 @@
       <c r="J17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="K17" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -2538,7 +2558,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>181</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>190</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>201</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>213</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>223</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>246</v>
       </c>
@@ -2783,7 +2803,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>256</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>265</v>
       </c>
@@ -2853,7 +2873,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>275</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>283</v>
       </c>
@@ -2923,7 +2943,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>295</v>
       </c>
@@ -2958,7 +2978,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>304</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>314</v>
       </c>
@@ -3022,13 +3042,13 @@
         <v>319</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>324</v>
       </c>
@@ -3057,13 +3077,13 @@
         <v>331</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>336</v>
       </c>
@@ -3098,7 +3118,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>347</v>
       </c>
@@ -3127,13 +3147,13 @@
         <v>353</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <v>348</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>358</v>
       </c>
@@ -3164,11 +3184,11 @@
       <c r="J36" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="K36" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>370</v>
       </c>
@@ -3199,11 +3219,11 @@
       <c r="J37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="K37" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>379</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>389</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>400</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>411</v>
       </c>
@@ -3337,13 +3357,13 @@
         <v>416</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>468</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>421</v>
       </c>
@@ -3372,13 +3392,13 @@
         <v>427</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>432</v>
       </c>
@@ -3413,7 +3433,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>442</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>453</v>
       </c>
@@ -3492,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3500,22 +3520,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="67.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="69.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3655,7 +3675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3686,7 +3706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3717,7 +3737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3779,7 +3799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3934,7 +3954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -3969,7 +3989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -4004,7 +4024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -4039,7 +4059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4074,7 +4094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -4109,7 +4129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4144,7 +4164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -4179,7 +4199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -4214,7 +4234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -4249,7 +4269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -4284,7 +4304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -4319,7 +4339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -4354,7 +4374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -4389,7 +4409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4424,7 +4444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -4459,7 +4479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -4494,7 +4514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -4529,7 +4549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -4599,7 +4619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -4634,7 +4654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -4669,7 +4689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -4704,7 +4724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -4739,7 +4759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -4774,7 +4794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -4809,7 +4829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -4844,7 +4864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -4879,7 +4899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -4949,7 +4969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -4984,7 +5004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -5054,7 +5074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -5089,7 +5109,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -5124,7 +5144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -5159,7 +5179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5194,7 +5214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5229,7 +5249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
@@ -5264,7 +5284,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -5299,7 +5319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -5334,7 +5354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -5369,7 +5389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -5404,7 +5424,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -5439,7 +5459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -5474,7 +5494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -5509,7 +5529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -5579,7 +5599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -5614,7 +5634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -5649,7 +5669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -5684,7 +5704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -5719,7 +5739,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -5789,7 +5809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -5824,7 +5844,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -5859,7 +5879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
@@ -5894,7 +5914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -5929,7 +5949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>147</v>
       </c>
@@ -5964,7 +5984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -5999,7 +6019,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -6034,7 +6054,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -6139,7 +6159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -6209,7 +6229,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -6244,7 +6264,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
@@ -6314,7 +6334,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
@@ -6349,7 +6369,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -6380,7 +6400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -6411,7 +6431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -6442,7 +6462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
@@ -6473,7 +6493,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>181</v>
       </c>
@@ -6504,7 +6524,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
@@ -6535,7 +6555,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>190</v>
       </c>
@@ -6570,7 +6590,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -6605,7 +6625,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>190</v>
       </c>
@@ -6640,7 +6660,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
@@ -6675,7 +6695,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
@@ -6710,7 +6730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -6745,7 +6765,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>201</v>
       </c>
@@ -6780,7 +6800,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
@@ -6815,7 +6835,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>201</v>
       </c>
@@ -6850,7 +6870,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
@@ -6885,7 +6905,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
@@ -6920,7 +6940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>201</v>
       </c>
@@ -6955,7 +6975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>213</v>
       </c>
@@ -6990,7 +7010,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>213</v>
       </c>
@@ -7023,7 +7043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -7058,7 +7078,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -7093,7 +7113,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -7128,7 +7148,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>213</v>
       </c>
@@ -7163,7 +7183,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>223</v>
       </c>
@@ -7198,7 +7218,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>223</v>
       </c>
@@ -7233,7 +7253,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>223</v>
       </c>
@@ -7268,7 +7288,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -7303,7 +7323,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>223</v>
       </c>
@@ -7338,7 +7358,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -7373,7 +7393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>236</v>
       </c>
@@ -7408,7 +7428,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -7443,7 +7463,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -7478,7 +7498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
@@ -7513,7 +7533,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>236</v>
       </c>
@@ -7548,7 +7568,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>236</v>
       </c>
@@ -7583,7 +7603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>246</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>246</v>
       </c>
@@ -7653,7 +7673,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
@@ -7688,7 +7708,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -7723,7 +7743,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>246</v>
       </c>
@@ -7758,7 +7778,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -7793,7 +7813,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
@@ -7828,7 +7848,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
@@ -7863,7 +7883,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>256</v>
       </c>
@@ -7898,7 +7918,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>256</v>
       </c>
@@ -7933,7 +7953,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -7968,7 +7988,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
@@ -8003,7 +8023,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -8038,7 +8058,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>265</v>
       </c>
@@ -8073,7 +8093,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
@@ -8108,7 +8128,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -8143,7 +8163,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
@@ -8178,7 +8198,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>265</v>
       </c>
@@ -8213,7 +8233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>275</v>
       </c>
@@ -8248,7 +8268,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
@@ -8283,7 +8303,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -8318,7 +8338,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>275</v>
       </c>
@@ -8353,7 +8373,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>275</v>
       </c>
@@ -8388,7 +8408,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>275</v>
       </c>
@@ -8423,7 +8443,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -8458,7 +8478,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>283</v>
       </c>
@@ -8493,7 +8513,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>283</v>
       </c>
@@ -8528,7 +8548,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>283</v>
       </c>
@@ -8563,7 +8583,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
@@ -8598,7 +8618,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>283</v>
       </c>
@@ -8633,7 +8653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -8668,7 +8688,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>295</v>
       </c>
@@ -8703,7 +8723,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>295</v>
       </c>
@@ -8738,7 +8758,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>295</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>295</v>
       </c>
@@ -8808,7 +8828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>295</v>
       </c>
@@ -8843,7 +8863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>304</v>
       </c>
@@ -8878,7 +8898,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>304</v>
       </c>
@@ -8913,7 +8933,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -8948,7 +8968,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>304</v>
       </c>
@@ -8983,7 +9003,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>304</v>
       </c>
@@ -9018,7 +9038,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
@@ -9053,7 +9073,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>314</v>
       </c>
@@ -9088,7 +9108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>314</v>
       </c>
@@ -9123,7 +9143,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>314</v>
       </c>
@@ -9158,7 +9178,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>314</v>
       </c>
@@ -9193,7 +9213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>314</v>
       </c>
@@ -9228,7 +9248,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>314</v>
       </c>
@@ -9263,7 +9283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -9298,7 +9318,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>324</v>
       </c>
@@ -9333,7 +9353,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>324</v>
       </c>
@@ -9368,7 +9388,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>324</v>
       </c>
@@ -9403,7 +9423,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>324</v>
       </c>
@@ -9438,7 +9458,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>324</v>
       </c>
@@ -9473,7 +9493,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>336</v>
       </c>
@@ -9508,7 +9528,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>336</v>
       </c>
@@ -9543,7 +9563,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>336</v>
       </c>
@@ -9578,7 +9598,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>336</v>
       </c>
@@ -9613,7 +9633,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>336</v>
       </c>
@@ -9648,7 +9668,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>336</v>
       </c>
@@ -9683,7 +9703,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>347</v>
       </c>
@@ -9718,7 +9738,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>347</v>
       </c>
@@ -9753,7 +9773,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>347</v>
       </c>
@@ -9788,7 +9808,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>347</v>
       </c>
@@ -9823,7 +9843,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>347</v>
       </c>
@@ -9858,7 +9878,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>347</v>
       </c>
@@ -9893,7 +9913,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>358</v>
       </c>
@@ -9928,7 +9948,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>358</v>
       </c>
@@ -9963,7 +9983,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>358</v>
       </c>
@@ -9998,7 +10018,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>370</v>
       </c>
@@ -10033,7 +10053,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>370</v>
       </c>
@@ -10068,7 +10088,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>370</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
@@ -10138,7 +10158,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>379</v>
       </c>
@@ -10173,7 +10193,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>379</v>
       </c>
@@ -10208,7 +10228,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>379</v>
       </c>
@@ -10243,7 +10263,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>379</v>
       </c>
@@ -10278,7 +10298,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>379</v>
       </c>
@@ -10313,7 +10333,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>389</v>
       </c>
@@ -10348,7 +10368,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>389</v>
       </c>
@@ -10383,7 +10403,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>389</v>
       </c>
@@ -10418,7 +10438,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>389</v>
       </c>
@@ -10453,7 +10473,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>389</v>
       </c>
@@ -10488,7 +10508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>389</v>
       </c>
@@ -10523,7 +10543,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>400</v>
       </c>
@@ -10558,7 +10578,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>400</v>
       </c>
@@ -10593,7 +10613,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>400</v>
       </c>
@@ -10628,7 +10648,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>400</v>
       </c>
@@ -10663,7 +10683,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>400</v>
       </c>
@@ -10698,7 +10718,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>400</v>
       </c>
@@ -10733,7 +10753,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>411</v>
       </c>
@@ -10768,7 +10788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>411</v>
       </c>
@@ -10803,7 +10823,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>411</v>
       </c>
@@ -10838,7 +10858,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>411</v>
       </c>
@@ -10873,7 +10893,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>411</v>
       </c>
@@ -10908,7 +10928,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>411</v>
       </c>
@@ -10943,7 +10963,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>421</v>
       </c>
@@ -10978,7 +10998,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>421</v>
       </c>
@@ -11013,7 +11033,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>421</v>
       </c>
@@ -11048,7 +11068,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>421</v>
       </c>
@@ -11083,7 +11103,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>421</v>
       </c>
@@ -11118,7 +11138,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>421</v>
       </c>
@@ -11153,7 +11173,7 @@
         <v>406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>432</v>
       </c>
@@ -11188,7 +11208,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>432</v>
       </c>
@@ -11223,7 +11243,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>432</v>
       </c>
@@ -11258,7 +11278,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>432</v>
       </c>
@@ -11293,7 +11313,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>432</v>
       </c>
@@ -11363,7 +11383,7 @@
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>442</v>
       </c>
@@ -11398,7 +11418,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>442</v>
       </c>
@@ -11433,7 +11453,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>442</v>
       </c>
@@ -11468,7 +11488,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>442</v>
       </c>
@@ -11503,7 +11523,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>442</v>
       </c>
@@ -11538,7 +11558,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>442</v>
       </c>
@@ -11573,7 +11593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>453</v>
       </c>
@@ -11608,7 +11628,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>453</v>
       </c>
@@ -11643,7 +11663,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>453</v>
       </c>
@@ -11678,7 +11698,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>453</v>
       </c>
@@ -11713,7 +11733,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>453</v>
       </c>
@@ -11748,7 +11768,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>453</v>
       </c>
